--- a/AI-OCR設計.xlsx
+++ b/AI-OCR設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_ohtani_works\aiocr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22645654810af591/デスクトップ/ソース管理/aiocr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B367E-CF9D-4FE1-82ED-99C89B559494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{967B367E-CF9D-4FE1-82ED-99C89B559494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25AAC994-CC00-4C94-8936-3BE63C072FCA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前処理" sheetId="1" r:id="rId1"/>
@@ -468,6 +468,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>211524</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>110658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B636C56-1691-E3B5-C32D-479BAD890D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="696686" y="234043"/>
+          <a:ext cx="4391638" cy="3153215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -737,9 +786,9 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <cols>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="91.5" customWidth="1"/>
@@ -774,7 +823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="168.75">
+    <row r="23" spans="2:6" ht="165.9">
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
@@ -819,7 +868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="37.5">
+    <row r="26" spans="2:6" ht="36.9">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -863,9 +912,9 @@
       <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData>
-    <row r="71" spans="3:3" ht="112.5">
+    <row r="71" spans="3:3" ht="110.6">
       <c r="C71" s="3" t="s">
         <v>29</v>
       </c>
@@ -886,11 +935,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9861CEE4-9E06-44E5-AFC4-DE115650D55F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>